--- a/DP_meson.xlsx
+++ b/DP_meson.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3609D07B-58D4-4031-A71F-CF88178C8659}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43DFD82-3DAD-4570-BDB7-5AE286D3C078}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -200,11 +200,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,18 +234,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:L19"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,42 +549,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -625,7 +640,7 @@
         <v>8.863399374349E-2</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E19" si="0">D3*0.1</f>
+        <f t="shared" ref="E3:E21" si="0">D3*0.1</f>
         <v>8.8633993743490007E-3</v>
       </c>
       <c r="F3" s="1">
@@ -641,7 +656,7 @@
         <v>238356134.178</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J19" si="1">I3*D3*(1-D3)</f>
+        <f t="shared" ref="J3:J21" si="1">I3*D3*(1-D3)</f>
         <v>19253933.927182272</v>
       </c>
       <c r="K3" s="2">
@@ -870,7 +885,7 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1">
@@ -907,7 +922,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -942,7 +957,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1">
         <v>5.0000000000000004E-6</v>
       </c>
@@ -977,7 +992,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1012,7 +1027,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1">
         <v>4.9999999999999998E-7</v>
       </c>
@@ -1047,7 +1062,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -1082,7 +1097,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="1">
         <v>4.9999999999999998E-8</v>
       </c>
@@ -1117,7 +1132,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1">
         <v>1E-8</v>
       </c>
@@ -1149,6 +1164,74 @@
       </c>
       <c r="L19" s="6">
         <v>1.081341889315E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="12">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="D20">
+        <v>5.1503792099999996E-6</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1503792099999996E-7</v>
+      </c>
+      <c r="F20" s="12">
+        <v>270</v>
+      </c>
+      <c r="G20">
+        <v>5.1319999999999997E-11</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.4273408458600001E-4</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3513087558783703E-10</v>
+      </c>
+      <c r="K20">
+        <v>405.50692711200003</v>
+      </c>
+      <c r="L20">
+        <v>1.1011357056E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="12">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="D21">
+        <v>1.7352077E-7</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7352077E-8</v>
+      </c>
+      <c r="F21" s="12">
+        <v>262</v>
+      </c>
+      <c r="G21">
+        <v>5.1319999999999997E-11</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+      <c r="I21" s="13">
+        <v>4.6663517831700004E-6</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>8.0970881400521023E-13</v>
+      </c>
+      <c r="K21">
+        <v>405.50692711200003</v>
+      </c>
+      <c r="L21">
+        <v>1.1011357056E-4</v>
       </c>
     </row>
   </sheetData>

--- a/DP_meson.xlsx
+++ b/DP_meson.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43DFD82-3DAD-4570-BDB7-5AE286D3C078}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -73,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,16 +239,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -345,7 +368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -522,21 +545,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -548,11 +571,11 @@
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
@@ -586,7 +609,7 @@
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -666,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -740,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="1">
         <v>4.9999999999999998E-7</v>
       </c>
@@ -774,7 +797,7 @@
         <v>1E-14</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="C7" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -808,7 +831,7 @@
         <v>0.18522125399834999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="1">
         <v>4.9999999999999998E-8</v>
       </c>
@@ -842,7 +865,7 @@
         <v>0.17467918990680001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="1">
         <v>1E-8</v>
       </c>
@@ -876,19 +899,22 @@
         <v>1.081341889315E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="E10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="E11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:16">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="D12" s="5">
@@ -920,10 +946,20 @@
       <c r="L12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="1">
+      <c r="M12" s="11">
+        <f>A12*D12*G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D13" s="6">
@@ -955,10 +991,20 @@
       <c r="L13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="1">
+      <c r="M13" s="11">
+        <f>A13*D13*G13*H13</f>
+        <v>5.1320954799499996E-17</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="2">
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="D14" s="6">
@@ -990,10 +1036,20 @@
       <c r="L14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="1">
+      <c r="M14" s="11">
+        <f>A14*D14*G14*H14</f>
+        <v>1.3912379156903864E-7</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="D15" s="6">
@@ -1025,10 +1081,20 @@
       <c r="L15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="1">
+      <c r="M15" s="11">
+        <f>A15*D15*G15*H15</f>
+        <v>1.7600460141227322E-6</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="2">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="D16" s="6">
@@ -1060,10 +1126,20 @@
       <c r="L16" s="6">
         <v>1E-14</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="1">
+      <c r="M16" s="11">
+        <f>A16*D16*G16*H16</f>
+        <v>3.6802055743448284E-7</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="D17" s="6">
@@ -1095,10 +1171,20 @@
       <c r="L17" s="6">
         <v>0.18522125399834999</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="1">
+      <c r="M17" s="11">
+        <f>A17*D17*G17*H17</f>
+        <v>1.2896120930997355E-9</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="11">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="2">
         <v>4.9999999999999998E-8</v>
       </c>
       <c r="D18" s="6">
@@ -1130,10 +1216,20 @@
       <c r="L18" s="6">
         <v>0.17467918990680001</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="1">
+      <c r="M18" s="11">
+        <f>A18*D18*G18*H18</f>
+        <v>6.5953289056570411E-11</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="11">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="2">
         <v>1E-8</v>
       </c>
       <c r="D19" s="6">
@@ -1165,9 +1261,19 @@
       <c r="L19" s="6">
         <v>1.081341889315E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="12">
+      <c r="M19" s="11">
+        <f>A19*D19*G19*H19</f>
+        <v>1.02951508636998E-13</v>
+      </c>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="11">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18">
         <v>5.0000000000000001E-9</v>
       </c>
       <c r="D20">
@@ -1177,13 +1283,13 @@
         <f t="shared" si="0"/>
         <v>5.1503792099999996E-7</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>270</v>
       </c>
       <c r="G20">
         <v>5.1319999999999997E-11</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="10">
         <v>1</v>
       </c>
       <c r="I20">
@@ -1199,9 +1305,19 @@
       <c r="L20">
         <v>1.1011357056E-4</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="12">
+      <c r="M20" s="11">
+        <f>A20*D20*G20*H20</f>
+        <v>2.6431746105719997E-16</v>
+      </c>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18">
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="D21">
@@ -1211,16 +1327,16 @@
         <f t="shared" si="0"/>
         <v>1.7352077E-8</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>262</v>
       </c>
       <c r="G21">
         <v>5.1319999999999997E-11</v>
       </c>
-      <c r="H21" s="12">
-        <v>1</v>
-      </c>
-      <c r="I21" s="13">
+      <c r="H21" s="10">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11">
         <v>4.6663517831700004E-6</v>
       </c>
       <c r="J21" s="1">
@@ -1233,7 +1349,107 @@
       <c r="L21">
         <v>1.1011357056E-4</v>
       </c>
-    </row>
+      <c r="M21" s="11">
+        <f>A21*D21*G21*H21</f>
+        <v>8.9050859163999999E-18</v>
+      </c>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" s="16" customFormat="1">
+      <c r="A23" s="19">
+        <v>1</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="19">
+        <v>1.7783E-6</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1.772E-2</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14">
+        <v>1.6229486708600001E-4</v>
+      </c>
+      <c r="H23" s="20">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="19">
+        <f>A23*D23*G23*H23</f>
+        <v>2.8758650447639201E-6</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+    </row>
+    <row r="24" spans="1:16" s="16" customFormat="1">
+      <c r="A24" s="19">
+        <v>1</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="19">
+        <v>3.1622800000000001E-6</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1.48E-3</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15">
+        <v>5.1321030746299999E-4</v>
+      </c>
+      <c r="H24" s="20">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="19">
+        <f>A24*D24*G24*H24</f>
+        <v>7.5955125504524002E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="16" customFormat="1">
+      <c r="A25" s="19">
+        <v>1</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="21">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="D25" s="15">
+        <v>5.5252935400000001E-6</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="19">
+        <v>1.2830238699900001E-9</v>
+      </c>
+      <c r="H25" s="20">
+        <v>1</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="19">
+        <f>A25*D25*G25*H25</f>
+        <v>7.0890835005215473E-15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="16" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>

--- a/DP_meson.xlsx
+++ b/DP_meson.xlsx
@@ -243,35 +243,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,10 +572,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
@@ -911,7 +911,7 @@
       <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2">
@@ -947,18 +947,18 @@
         <v>0</v>
       </c>
       <c r="M12" s="11">
-        <f>A12*D12*G12*H12</f>
+        <f t="shared" ref="M12:M21" si="2">A12*D12*G12*H12</f>
         <v>0</v>
       </c>
       <c r="N12" s="11"/>
-      <c r="O12" s="17"/>
+      <c r="O12" s="15"/>
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="11">
         <v>1</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -992,18 +992,18 @@
         <v>0</v>
       </c>
       <c r="M13" s="11">
-        <f>A13*D13*G13*H13</f>
+        <f t="shared" si="2"/>
         <v>5.1320954799499996E-17</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="11">
         <v>1</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2">
         <v>5.0000000000000004E-6</v>
       </c>
@@ -1037,18 +1037,18 @@
         <v>0</v>
       </c>
       <c r="M14" s="11">
-        <f>A14*D14*G14*H14</f>
+        <f t="shared" si="2"/>
         <v>1.3912379156903864E-7</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="11">
         <v>1</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1082,18 +1082,18 @@
         <v>0</v>
       </c>
       <c r="M15" s="11">
-        <f>A15*D15*G15*H15</f>
+        <f t="shared" si="2"/>
         <v>1.7600460141227322E-6</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="11">
         <v>1</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2">
         <v>4.9999999999999998E-7</v>
       </c>
@@ -1127,18 +1127,18 @@
         <v>1E-14</v>
       </c>
       <c r="M16" s="11">
-        <f>A16*D16*G16*H16</f>
+        <f t="shared" si="2"/>
         <v>3.6802055743448284E-7</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="11">
         <v>1</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -1172,18 +1172,18 @@
         <v>0.18522125399834999</v>
       </c>
       <c r="M17" s="11">
-        <f>A17*D17*G17*H17</f>
+        <f t="shared" si="2"/>
         <v>1.2896120930997355E-9</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2">
         <v>4.9999999999999998E-8</v>
       </c>
@@ -1217,18 +1217,18 @@
         <v>0.17467918990680001</v>
       </c>
       <c r="M18" s="11">
-        <f>A18*D18*G18*H18</f>
+        <f t="shared" si="2"/>
         <v>6.5953289056570411E-11</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="11">
         <v>1</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="2">
         <v>1E-8</v>
       </c>
@@ -1262,18 +1262,18 @@
         <v>1.081341889315E-2</v>
       </c>
       <c r="M19" s="11">
-        <f>A19*D19*G19*H19</f>
+        <f t="shared" si="2"/>
         <v>1.02951508636998E-13</v>
       </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="17"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="11">
         <v>1</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="16">
         <v>5.0000000000000001E-9</v>
       </c>
       <c r="D20">
@@ -1306,18 +1306,18 @@
         <v>1.1011357056E-4</v>
       </c>
       <c r="M20" s="11">
-        <f>A20*D20*G20*H20</f>
+        <f t="shared" si="2"/>
         <v>2.6431746105719997E-16</v>
       </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="17"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="11">
         <v>1</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="16">
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="D21">
@@ -1350,106 +1350,124 @@
         <v>1.1011357056E-4</v>
       </c>
       <c r="M21" s="11">
-        <f>A21*D21*G21*H21</f>
+        <f t="shared" si="2"/>
         <v>8.9050859163999999E-18</v>
       </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="17"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
       <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:16" s="16" customFormat="1">
-      <c r="A23" s="19">
-        <v>1</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="19">
+    <row r="23" spans="1:16" s="14" customFormat="1">
+      <c r="A23" s="17">
+        <v>1</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="17">
         <v>1.7783E-6</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>1.772E-2</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="14">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12">
         <v>1.6229486708600001E-4</v>
       </c>
-      <c r="H23" s="20">
-        <v>1</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="19">
+      <c r="H23" s="18">
+        <v>1</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1173614.15652</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13">
+        <v>1.2822958021300001E-4</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
         <f>A23*D23*G23*H23</f>
         <v>2.8758650447639201E-6</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-    </row>
-    <row r="24" spans="1:16" s="16" customFormat="1">
-      <c r="A24" s="19">
-        <v>1</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="19">
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="1:16" s="14" customFormat="1">
+      <c r="A24" s="17">
+        <v>1</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="17">
         <v>3.1622800000000001E-6</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <v>1.48E-3</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15">
-        <v>5.1321030746299999E-4</v>
-      </c>
-      <c r="H24" s="20">
-        <v>1</v>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="19">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13">
+        <v>5.1321030746000001E-4</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1</v>
+      </c>
+      <c r="I24" s="13">
+        <v>390000.39484600001</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="17">
+        <v>4.0550632702700002E-5</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
         <f>A24*D24*G24*H24</f>
-        <v>7.5955125504524002E-7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="16" customFormat="1">
-      <c r="A25" s="19">
-        <v>1</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="21">
+        <v>7.5955125504079998E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="14" customFormat="1">
+      <c r="A25" s="17">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="19">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>5.5252935400000001E-6</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="19">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="17">
         <v>1.2830238699900001E-9</v>
       </c>
-      <c r="H25" s="20">
-        <v>1</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="19">
+      <c r="H25" s="18">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13">
+        <v>3.75721425376E-3</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13">
+        <v>16.220277084500001</v>
+      </c>
+      <c r="L25" s="13">
+        <v>2.7407579646799999E-3</v>
+      </c>
+      <c r="M25" s="17">
         <f>A25*D25*G25*H25</f>
         <v>7.0890835005215473E-15</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="16" customFormat="1"/>
+    <row r="26" spans="1:16" s="14" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
